--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:08:13+00:00</t>
+    <t>2026-01-01T16:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-nursing-assessment</t>
+    <t>https://opennursingcoreig.com/StructureDefinition/onc-nursing-assessment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1622,7 +1622,7 @@
     <t>Observation.component:alertness.value[x]</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/onc-4at-alertness-vs</t>
+    <t>https://opennursingcoreig.com/ValueSet/onc-4at-alertness-vs</t>
   </si>
   <si>
     <t>Observation.component:alertness.dataAbsentReason</t>
@@ -1663,7 +1663,7 @@
     <t>Observation.component:amt4.value[x]</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/onc-4at-amt4-vs</t>
+    <t>https://opennursingcoreig.com/ValueSet/onc-4at-amt4-vs</t>
   </si>
   <si>
     <t>Observation.component:amt4.dataAbsentReason</t>
@@ -1704,7 +1704,7 @@
     <t>Observation.component:attention.value[x]</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/onc-4at-attention-vs</t>
+    <t>https://opennursingcoreig.com/ValueSet/onc-4at-attention-vs</t>
   </si>
   <si>
     <t>Observation.component:attention.dataAbsentReason</t>
@@ -1745,7 +1745,7 @@
     <t>Observation.component:acuteChange.value[x]</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/onc-4at-acute-change-vs</t>
+    <t>https://opennursingcoreig.com/ValueSet/onc-4at-acute-change-vs</t>
   </si>
   <si>
     <t>Observation.component:acuteChange.dataAbsentReason</t>
@@ -2098,7 +2098,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.6328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.7578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-4at-delirium.xlsx
+++ b/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
